--- a/admin/assets/file/export/refund.xlsx
+++ b/admin/assets/file/export/refund.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -27,28 +27,37 @@
     <t>SKU</t>
   </si>
   <si>
-    <t>Client</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
-    <t>Batch</t>
-  </si>
-  <si>
     <t>Quantity</t>
   </si>
   <si>
-    <t>ACK-81980-2</t>
-  </si>
-  <si>
-    <t>639036819807</t>
-  </si>
-  <si>
-    <t>GD-62</t>
-  </si>
-  <si>
-    <t>10001A</t>
+    <t>33427_ABH_AV69811</t>
+  </si>
+  <si>
+    <t>805845698111</t>
+  </si>
+  <si>
+    <t>10005A</t>
+  </si>
+  <si>
+    <t>OKT_OK-5123H_3082</t>
+  </si>
+  <si>
+    <t>768189044986</t>
+  </si>
+  <si>
+    <t>10002B</t>
+  </si>
+  <si>
+    <t>11588_CAL_BO-342-AB</t>
+  </si>
+  <si>
+    <t>020193342305</t>
+  </si>
+  <si>
+    <t>10092D</t>
   </si>
 </sst>
 </file>
@@ -399,7 +408,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -407,16 +416,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="23.422852" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="6.998291" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="8.712158" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="23.422852" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="11.425781" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="7.426758" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="11.425781" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,30 +439,56 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>250</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="D2"/>
-      <c r="E2" t="s">
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="F2"/>
-      <c r="G2">
-        <v>5</v>
+      <c r="E3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/refund.xlsx
+++ b/admin/assets/file/export/refund.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
   <si>
     <t>Name</t>
   </si>
@@ -31,33 +31,6 @@
   </si>
   <si>
     <t>Quantity</t>
-  </si>
-  <si>
-    <t>33427_ABH_AV69811</t>
-  </si>
-  <si>
-    <t>805845698111</t>
-  </si>
-  <si>
-    <t>10005A</t>
-  </si>
-  <si>
-    <t>OKT_OK-5123H_3082</t>
-  </si>
-  <si>
-    <t>768189044986</t>
-  </si>
-  <si>
-    <t>10002B</t>
-  </si>
-  <si>
-    <t>11588_CAL_BO-342-AB</t>
-  </si>
-  <si>
-    <t>020193342305</t>
-  </si>
-  <si>
-    <t>10092D</t>
   </si>
 </sst>
 </file>
@@ -408,7 +381,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -416,9 +389,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="23.422852" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="23.422852" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="6.28418" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="4.855957" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="4.855957" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="11.425781" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
   </cols>
@@ -438,57 +411,6 @@
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4">
-        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/refund.xlsx
+++ b/admin/assets/file/export/refund.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -31,6 +31,33 @@
   </si>
   <si>
     <t>Quantity</t>
+  </si>
+  <si>
+    <t>33427_ABH_AV69811</t>
+  </si>
+  <si>
+    <t>805845698111</t>
+  </si>
+  <si>
+    <t>10005A</t>
+  </si>
+  <si>
+    <t>OKT_OK-5123H_3082</t>
+  </si>
+  <si>
+    <t>768189044986</t>
+  </si>
+  <si>
+    <t>10002B</t>
+  </si>
+  <si>
+    <t>11588_CAL_BO-342-AB</t>
+  </si>
+  <si>
+    <t>020193342305</t>
+  </si>
+  <si>
+    <t>10092D</t>
   </si>
 </sst>
 </file>
@@ -381,7 +408,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,9 +416,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="6.28418" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="4.855957" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="4.855957" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="23.422852" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15.281982" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="23.422852" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="11.425781" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
   </cols>
@@ -411,6 +438,57 @@
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/refund.xlsx
+++ b/admin/assets/file/export/refund.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -30,16 +30,10 @@
     <t>Location</t>
   </si>
   <si>
+    <t>Batch</t>
+  </si>
+  <si>
     <t>Quantity</t>
-  </si>
-  <si>
-    <t>33427_ABH_AV69811</t>
-  </si>
-  <si>
-    <t>805845698111</t>
-  </si>
-  <si>
-    <t>10005A</t>
   </si>
   <si>
     <t>OKT_OK-5123H_3082</t>
@@ -408,7 +402,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -420,10 +414,11 @@
     <col min="2" max="2" width="15.281982" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="23.422852" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="11.425781" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="7.426758" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="11.425781" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,55 +434,43 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2">
-        <v>250</v>
+        <v>8</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2">
+        <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
       <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4">
+      <c r="E3"/>
+      <c r="F3">
         <v>158</v>
       </c>
     </row>

--- a/admin/assets/file/export/refund.xlsx
+++ b/admin/assets/file/export/refund.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -27,6 +27,9 @@
     <t>SKU</t>
   </si>
   <si>
+    <t>Client</t>
+  </si>
+  <si>
     <t>Location</t>
   </si>
   <si>
@@ -36,22 +39,16 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>OKT_OK-5123H_3082</t>
-  </si>
-  <si>
-    <t>768189044986</t>
-  </si>
-  <si>
-    <t>10002B</t>
-  </si>
-  <si>
-    <t>11588_CAL_BO-342-AB</t>
-  </si>
-  <si>
-    <t>020193342305</t>
-  </si>
-  <si>
-    <t>10092D</t>
+    <t>758-10-SET BLACK</t>
+  </si>
+  <si>
+    <t>758-10-SET</t>
+  </si>
+  <si>
+    <t>Cavalet  Inc</t>
+  </si>
+  <si>
+    <t>SPA</t>
   </si>
 </sst>
 </file>
@@ -402,7 +399,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -410,15 +407,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="23.422852" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="23.422852" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="11.425781" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="7.426758" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="11.425781" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="19.995117" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="15.281982" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="7.426758" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="11.425781" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -437,41 +435,29 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2"/>
-      <c r="F2">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3"/>
-      <c r="F3">
-        <v>158</v>
+      <c r="F2"/>
+      <c r="G2">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/refund.xlsx
+++ b/admin/assets/file/export/refund.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -39,16 +39,31 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>758-10-SET BLACK</t>
-  </si>
-  <si>
-    <t>758-10-SET</t>
-  </si>
-  <si>
-    <t>Cavalet  Inc</t>
-  </si>
-  <si>
-    <t>SPA</t>
+    <t>KKM_7072_3457</t>
+  </si>
+  <si>
+    <t>048237070724</t>
+  </si>
+  <si>
+    <t>Tio Tang</t>
+  </si>
+  <si>
+    <t>UPD-GLSILK-1</t>
+  </si>
+  <si>
+    <t>678634282286</t>
+  </si>
+  <si>
+    <t>compassparts compassparts</t>
+  </si>
+  <si>
+    <t>CER_41416</t>
+  </si>
+  <si>
+    <t>730384414161</t>
+  </si>
+  <si>
+    <t>AGP2586</t>
   </si>
 </sst>
 </file>
@@ -399,7 +414,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -407,12 +422,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="19.995117" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="15.281982" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="16.424561" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15.281982" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="16.424561" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="30.563965" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="7.426758" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="9.283447" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="11.425781" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -447,17 +462,61 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
+      <c r="E2">
+        <v>15012</v>
       </c>
       <c r="F2"/>
       <c r="G2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>27001</v>
+      </c>
+      <c r="F3"/>
+      <c r="G3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
         <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>62</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>562</v>
       </c>
     </row>
   </sheetData>

--- a/admin/assets/file/export/refund.xlsx
+++ b/admin/assets/file/export/refund.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
   <si>
     <t>Name</t>
   </si>
@@ -37,33 +37,6 @@
   </si>
   <si>
     <t>Quantity</t>
-  </si>
-  <si>
-    <t>KKM_7072_3457</t>
-  </si>
-  <si>
-    <t>048237070724</t>
-  </si>
-  <si>
-    <t>Tio Tang</t>
-  </si>
-  <si>
-    <t>UPD-GLSILK-1</t>
-  </si>
-  <si>
-    <t>678634282286</t>
-  </si>
-  <si>
-    <t>compassparts compassparts</t>
-  </si>
-  <si>
-    <t>CER_41416</t>
-  </si>
-  <si>
-    <t>730384414161</t>
-  </si>
-  <si>
-    <t>AGP2586</t>
   </si>
 </sst>
 </file>
@@ -414,7 +387,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,12 +395,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="30.563965" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="6.28418" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="4.855957" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="4.855957" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="8.712158" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.425781" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="7.426758" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="11.425781" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -452,71 +425,6 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>15012</v>
-      </c>
-      <c r="F2"/>
-      <c r="G2">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>27001</v>
-      </c>
-      <c r="F3"/>
-      <c r="G3">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <v>62</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4">
-        <v>562</v>
       </c>
     </row>
   </sheetData>
